--- a/ImportFileForm/Mau_phieu_nhap_sach.xlsx
+++ b/ImportFileForm/Mau_phieu_nhap_sach.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAT\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAT\Desktop\Workspace\NMCNPM\QuanLiNhaSach\ImportFileForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -525,7 +525,7 @@
         <v>250</v>
       </c>
       <c r="H5" s="1">
-        <v>60000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -551,7 +551,7 @@
         <v>300</v>
       </c>
       <c r="H6" s="1">
-        <v>20000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>200</v>
       </c>
       <c r="H7" s="1">
-        <v>50000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>250</v>
       </c>
       <c r="H8" s="1">
-        <v>40000</v>
+        <v>120000</v>
       </c>
     </row>
   </sheetData>
